--- a/产品自检清单.xlsx
+++ b/产品自检清单.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="实例" sheetId="1" r:id="rId1"/>
+    <sheet name="困境" sheetId="3" r:id="rId2"/>
+    <sheet name="计划" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,23 +31,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的版本管理并没有做好，之所以没有做好，是因为版本改动太频繁，久而久之，就觉得实在是太繁琐了，然后就不想做了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在做PRD时，专门出一个版块来记录改动的内容，必须包括以下内容：时间，改动内容，设计版块。
+2. 在用word时，也可以在一个excel中记录所改动的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都具有按下、不可按状态、正常状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠结/做错的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动认证DEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前做一站式换卡APP的时候，业务的icon并没有定义按下状态，导致icon不像是一个按钮，这是我的失误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>icon或按钮ui原则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>都具有按下、不可按状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前做一站式换卡APP的时候，业务的icon并没有定义按下状态，导致icon不像是一个按钮，这是我的失误</t>
+    <t>太烂，并且没有建立起良好的习惯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sim盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做SIM盾结算分析时，因为涉及到BBOSS和SIM盾平台，对平台的功能并不理解，所以导致产生了许多问题。当涉及到多平台时，一定要把平台的人聚在一块，不能自己瞎想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提升的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何处理好自己在技术和产品设计的区别，当我想一个需求时，其实我第一个想的并不是，是否符合产品逻辑，而是在想着技术能不能实现，这其实并不好，导致在设计流程的时候，总是首鼠两端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多事情，总是在已经解决之后，觉得很容易，但在未解决时，就感觉充满了困难，而且完全不知道怎么办，我感觉迷茫，不知道该怎么办。如何才能让自己的设计变得能够接地气，如何才能真正的理解操作者，而不是自顾自的设计流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准理解自己的想法，把自己想要的产品的功能点，流程，自己先梳理清楚，自己先表达清楚，而不是不说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出来，精准的写出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你面对一个陌生事物的时候，如何更快的认识它，如何更快的理解它，并且能够站在自己的角度，提出自己的需求。如何提出自己的需求？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得， 我现在的理解能力是可以的，但如何在领悟对方的基础上，提出自己的需求吗？对别人理解的太多，对自己理解的太少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当出现不同操作选项时，则设计可选的选项，根据不同的选项进行更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当要设计一个审批流程时，出现省公司和政企公司流程不同，但就可以设置可选的选项，设计分支流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全没有这种意识，感觉就被程序拖着走，我一直以为BBOSS只能做一个流程，说到底，还是完全不熟悉业务流程，不知道业务流程。
+不知道自己的需求，从这方面来看，其实陈沁比我厉害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通和工作职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道是不是自己的工作，不知道该不该问，那么问了之后，会有什么后果？不问，又有什么后果呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不问的话：没有什么后果。但觉得自己工作没有做到位。
+问的话：没有什么后果，但担心逾越了规矩，但也没有办法啊，无法摆脱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不够主动，不知道怎么搞。我觉得，应该自己提出一个方案：
+1. 做好方案，提出自己的需求，向上求助，尽管去问。
+2. 但看了已经不需要我的时候，我该怎么办呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当遇到需要多平台沟通时，就需要明白，需要哪些平台，然后约一个时间，一起讨论一下，把许多事情搞清楚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹在中间，不知所措。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. PMP证书考证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 数据分析能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. SQL语句学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. UI的基本规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 需求分析能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切图的原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 沟通能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整表达的能力，如何才能克服紧张？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 英语阅读和沟通能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望能够看一个证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望掌握的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,19 +263,86 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -89,8 +351,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,47 +709,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="49" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/产品自检清单.xlsx
+++ b/产品自检清单.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1824" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="实例" sheetId="1" r:id="rId1"/>
-    <sheet name="困境" sheetId="3" r:id="rId2"/>
-    <sheet name="计划" sheetId="2" r:id="rId3"/>
+    <sheet name="实例pro" sheetId="5" r:id="rId1"/>
+    <sheet name="案例" sheetId="1" r:id="rId2"/>
+    <sheet name="场景值" sheetId="6" r:id="rId3"/>
+    <sheet name="困境" sheetId="3" r:id="rId4"/>
+    <sheet name="计划" sheetId="2" r:id="rId5"/>
+    <sheet name="学习" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="178">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,19 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 在做PRD时，专门出一个版块来记录改动的内容，必须包括以下内容：时间，改动内容，设计版块。
-2. 在用word时，也可以在一个excel中记录所改动的内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>都具有按下、不可按状态、正常状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纠结/做错的原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,18 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon或按钮ui原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太烂，并且没有建立起良好的习惯。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sim盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在做SIM盾结算分析时，因为涉及到BBOSS和SIM盾平台，对平台的功能并不理解，所以导致产生了许多问题。当涉及到多平台时，一定要把平台的人聚在一块，不能自己瞎想。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +135,6 @@
   </si>
   <si>
     <t>判断能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当出现不同操作选项时，则设计可选的选项，根据不同的选项进行更新。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,11 +152,6 @@
   </si>
   <si>
     <t>不知道是不是自己的工作，不知道该不该问，那么问了之后，会有什么后果？不问，又有什么后果呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不问的话：没有什么后果。但觉得自己工作没有做到位。
-问的话：没有什么后果，但担心逾越了规矩，但也没有办法啊，无法摆脱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夹在中间，不知所措。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. PMP证书考证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +210,659 @@
   </si>
   <si>
     <t>提升目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个APP是一个内部应用，在使用前是会签署一些产品框架协议和服务使用条款。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon或按钮ui原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当出现不同操作选项时，则设计可选的选项，根据不同的选项进行更新。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过3s就要新增loading效果图，若超过8s左右，则应该通过进度条来进行显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置安全策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切图原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有主人翁意识，或者，并没有真正的预演一遍产品的演变流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑极值情况，这是我之前在做产品时忽略的事情。在做SIM盾活动时，要做奖励，然后我有考虑到，如果达到1000块时，需要有一个奖励封顶的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一站式换卡APP是否需要用户隐私协议，我之前写了管理办法，但并未涉及我方的责任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要，已经有了私下的合同，合同里面也已经规定了一些事情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要思考，整个页面的实际流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有经验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切图，对于安卓端来说，需要有3个不同的清晰度。1x,2x,3x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前在和ui沟通时，并不是很清楚这些规范，现在清楚了一些， 并且， 我觉得我还需要学习一下安卓当前的使用交互规范，页面交互状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面交互的四个维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在处理运营活动类交互设计时，一般通过下面4个维度来分析：
+1. 用户：是什么样的人在使用你的产品，这些人有哪些特点，有哪些诉求，用户画像越细越好；
+2. 目标：用户的目标是什么，用户想得到什么，能够给用户带来什么样的价值。
+3. 场景：场景化设计，考虑用户真实的使用场景，用户是在什么样的情形下使用这些功能的。
+4. 流程：用户在使用过程重在各个场景下分别会产生哪些行为流程，怎样优化用户流程，怎样避免用户犯错并给出友好的反馈等等。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式：如何做到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部使用场景
+外部使用场景
+同理心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过不断的问自己问题，来解决这些事情：
+1. 页面流程是否有问题，是不是能够更简化？
+2. 页面是否清晰明白？用户是否能够看得懂？
+3. 用户当前的心理预期是什么样的？需要引导用户怎么操作？
+4. 用户为什么要进行这个操作， 用户的目标是什么？
+5. 还有木有更好的方案？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM盾推荐有礼活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云手势操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多端登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定 要考虑极值情况，当是0的时候，会怎样。当超出条件时，会怎样。一定要考虑到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白名单限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块
+功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短验登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许多端登录？通常不允许。
+如果存在web端、手机端、ios端，是否允许多段登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要设置最长登录时间，无操作的登录时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录或注册时，是否需要进行白名单限制：
+白名单限制，可以是手机号，也可以是ip地址；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短验频次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+前端的按钮控制：60s，才能复原。
+后端的账号控制：同一个手机号码，5min10次。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端校验：必须输入手机号，登录按钮才会生效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势密码，可以进行云存储，这样不用固定终端就一个密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交互流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+第一种：按一次短验按钮--&gt;短信下发--&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端校验：必须输入手机号，登录按钮才会生效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定：微博、微信、手机号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账密登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不问的话：没有什么后果。但觉得自己工作没有做到位。
+问的话：没有什么后果，但担心逾越了规矩，但也没有办法啊，无法摆脱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹在中间，不知所措。正确的方法应该是：立刻去做，立刻去问！不要犹豫，只有做了才能有结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一账号，密码错误限制：60min输错5次。
+忘记密码：忘记密码提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号绑定，通常是账号安全的一个子模块：
+针对只能手机号登陆的，需要有更换手机号选项。
+更换手机号选项，需要有密码验证和短信验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设置云手势，这样只需要设置一套手势密码，就可以多段使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一站式换卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太烂，并且没有建立起良好的习惯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在做PRD时，专门出一个版块来记录改动的内容，必须包括以下内容：时间，改动内容，设计版块。
+2. 在用word时，也可以在一个excel中记录所改动的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验和实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多长时间打开一次APP，需要重新输入密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要思考的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面
+元素设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都具有按下、不可按状态、正常状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定：微博、微信、手机号。 账号绑定的，
+允许登录时，选择微信、微博或手机号绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以设置云手势，这样只需要设置一套手势密码，就可以多端使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常，现在已经是只手机验证码注册登录了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录/注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码：忘记密码提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按键频次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+同一账号，密码错误限制：60min输错5次，24小时之后才能再次输入。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在同一页面，或统一IP地址，按钮在登录或注册时，进行按键保护。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选用了不允许。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交互流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+第一种：按一次短验按钮--&gt;短信请求返回--&gt;跳转到输入短验页面--&gt;输入验证码--&gt;自动登录
+第二种：按一次短验按钮--&gt;toast：圆圈（提交中）--&gt;toast：短验已下发--&gt;输入短验--&gt;点击登录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号绑定，允许登录时，选择微信、微博或手机号绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势密码，可以进行云存储，这样不用固定终端，就一个密码即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了10小时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多长时间打开一次APP，需要登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有做客户端缓存，需求并没有定义好，这一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时就做了白名单限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端就可以校验手机号，但不可以校验是否是移动号码。（不知道前端就可以校验手机号码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一账号，5min10次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做清晰的toast提醒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一站式换卡做了，1h输错5次，24小时需要重试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册提示：手机号已注册，请输入验证码
+直接登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是弹窗方式，同意：灰色按钮；不同意：绿色按钮。
+通常都是陈列方式，在下方陈列出用户协议，点开就是用户协议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是弹窗形式，还是陈列方式。
+如果是弹窗方式，弹出规则是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输错限制；
+忘记手势密码；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许多端登录？通常不允许。
+如果存在web端、手机端、ios端，是否允许多端登录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近登陆设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录登陆设备型号。
+标记正在使用的本机设备。
+非最近登陆设备，需要做身份校验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份校验规则；
+是否要做登陆设备管理，删除功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常只有忘记密码，而没有修改密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码的校验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求前期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当涉及到多个系统打通时，其实是需要先熟悉相关系统
+产品文档，而不是自己一个人空想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是第一次登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未超出会话时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出会话时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开APP：
+从后台转入到前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按一次home键：
+从前台转入到后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务管理视窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按home键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从息屏到手机唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页按一次退出键：toast提示；
+连续按2次（在toast时间内）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到是陈列方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在审批流程中，有公司不需要领导审批，有公司需要领导审批，需要考虑整体流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务受理的功能中，需要设定受理的危险系数层级：哪些功能需要审批，哪些功能不需要审批：
+1. 预开通；2. 开通；3业务暂停/回复; 4.业务属性变更；5. 业务资费变更；6. 成员添加或删减；7. 业务注销；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sim盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我丝毫就没有考虑到究竟要什么数据，没有考虑到需要银行网点，营业员姓名，没有考虑到运营侧需要知道，一个网点的营业数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全没有意识到，之前景凤设计的时候，曾说过要工号，网点号之类的，我没有注意，但其实，是需要。但当时，注册时，已经觉得很繁琐了，就还是没有搞清楚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有一个用户访谈，或者需求访谈的对话稿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要哪些信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立用户画像，需要一些基本信息，注册的核心，是为以后的运营
+分析做准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我没有要银行侧的营业网点，我当时的想法，完全是为了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +894,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +913,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,9 +973,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -344,14 +984,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -362,9 +1004,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -381,19 +1020,106 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,121 +1435,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="21"/>
+    <col min="2" max="2" width="11.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="12.21875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="C18:C20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
+      <c r="A6" s="38"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="3">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="A3:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,85 +2096,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="49" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="9" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="49" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="8" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -921,12 +2316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -937,62 +2332,120 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="207" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>